--- a/biology/Botanique/Orchidinae/Orchidinae.xlsx
+++ b/biology/Botanique/Orchidinae/Orchidinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orchidinae sont une sous-tribu de plantes à fleur de la famille des Orchidaceae (Orchidées), de la sous-famille des Orchidoideae et de la tribu des Orchideae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amitostigma – Anacamptis – Androcorys – Arnottia – Bartholina – Benthamia – Bhutanthera – Bonatea – Brachycorythis – Centrostigma – Chamorchis – Coenoemersa – Cooktownia – Cynorkis – Dactylorhiza – Diplomeris – Dracomonticola – Frigidorchis – Galearis – Gennaria – Gymnadenia – Habenaria – Hemipilia – Hemipiliopsis – Herminium – Himantoglossum – Holothrix – Megalorchis – Neobolusia – Neolindleya – Neotinea – Neottianthe – Odisha – Oligophyton – Ophrys – Orchis – Pecteilis – Peristylus – Physoceras – Platanthera – Platycoryne – Ponerorchis – Porolabium – Pseudorchis – Roeperocharis – Schizochilus – Senghasiella – Serapias – Sirindhornia – Smithorchis – Stenoglottis – Steveniella – Thulinia – Traunsteinera – Tsaiorchis – Tylostigma – Veyretella – Vietorchis
 Nothogenres
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(nl) P. Vermeulen, dans Landwehr J., Wilde Orchideeen van Europa, vol 2, 1977, p. 556</t>
         </is>
